--- a/Простой отчет.xlsx
+++ b/Простой отчет.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F167B616-5CF5-4DEB-B103-B1953BE51A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1862D80D-ECF5-4F48-B71D-BA453A292EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4EE54C56-8909-4984-AB72-6311CA39B24F}"/>
+    <workbookView xWindow="-105" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{E5E0E3F0-5BA0-47E8-B3B8-855060EB3449}"/>
   </bookViews>
   <sheets>
     <sheet name="Рег. карты" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>01.09.2023</t>
   </si>
   <si>
-    <t>Pididi</t>
+    <t>Методы машинного обучения</t>
   </si>
   <si>
     <t>Библиотека</t>
@@ -227,7 +227,7 @@
     <t>Подписал</t>
   </si>
   <si>
-    <t>07.04.2025</t>
+    <t>10.04.2025</t>
   </si>
   <si>
     <t>Подписано</t>
@@ -616,7 +616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5457A747-C845-496B-8036-F8C25AAA04EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02E118-C50A-474F-A412-C9BC71C68A5C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AE8EB-4889-4139-AA75-15B1C25E23CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566F91F-E685-4CDB-8080-37E1251EFE19}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1103,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5033E901-AF11-4F2D-A1C0-41562F5B1C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE29C6D-54E9-484D-934A-AEB2E95CB8C8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Простой отчет.xlsx
+++ b/Простой отчет.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1862D80D-ECF5-4F48-B71D-BA453A292EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA05219A-2902-4A2A-85C9-279508D498D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{E5E0E3F0-5BA0-47E8-B3B8-855060EB3449}"/>
+    <workbookView xWindow="465" yWindow="945" windowWidth="15375" windowHeight="7785" xr2:uid="{34B4619D-38C6-452D-8A52-6F68EEC19D3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Рег. карты" sheetId="7" r:id="rId1"/>
-    <sheet name="Запросы" sheetId="6" r:id="rId2"/>
-    <sheet name="Документы" sheetId="1" r:id="rId3"/>
+    <sheet name="Рег. карты" sheetId="6" r:id="rId1"/>
+    <sheet name="Документы" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -158,85 +157,49 @@
     <t>06.04.2025</t>
   </si>
   <si>
-    <t>Дата запроса</t>
-  </si>
-  <si>
-    <t>Причина</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Запросил</t>
+    <t>Дата регистрации</t>
+  </si>
+  <si>
+    <t>Подпись</t>
+  </si>
+  <si>
+    <t>Подписал</t>
   </si>
   <si>
     <t>Документ</t>
   </si>
   <si>
+    <t>10.04.2025</t>
+  </si>
+  <si>
+    <t>Подписано</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>20.08.2023</t>
+  </si>
+  <si>
+    <t>Не подписано</t>
+  </si>
+  <si>
+    <t>10.06.2023</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>15.04.2023</t>
+  </si>
+  <si>
+    <t>05.02.2023</t>
+  </si>
+  <si>
+    <t>20.01.2023</t>
+  </si>
+  <si>
     <t>05.09.2023</t>
-  </si>
-  <si>
-    <t>Обучение</t>
-  </si>
-  <si>
-    <t>Отклонен</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>20.08.2023</t>
-  </si>
-  <si>
-    <t>Работа</t>
-  </si>
-  <si>
-    <t>Подтвержден</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>15.07.2023</t>
-  </si>
-  <si>
-    <t>Исследование</t>
-  </si>
-  <si>
-    <t>10.06.2023</t>
-  </si>
-  <si>
-    <t>15.04.2023</t>
-  </si>
-  <si>
-    <t>10.03.2023</t>
-  </si>
-  <si>
-    <t>05.02.2023</t>
-  </si>
-  <si>
-    <t>20.01.2023</t>
-  </si>
-  <si>
-    <t>Дата регистрации</t>
-  </si>
-  <si>
-    <t>Подпись</t>
-  </si>
-  <si>
-    <t>Подписал</t>
-  </si>
-  <si>
-    <t>10.04.2025</t>
-  </si>
-  <si>
-    <t>Подписано</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Не подписано</t>
   </si>
 </sst>
 </file>
@@ -616,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02E118-C50A-474F-A412-C9BC71C68A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25617ED-D9C4-49CC-B7E9-E9AAE3707E98}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -636,16 +599,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -670,13 +633,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -690,10 +653,10 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>19</v>
@@ -704,13 +667,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -724,10 +687,10 @@
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -738,13 +701,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
@@ -758,10 +721,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>32</v>
@@ -772,13 +735,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -789,13 +752,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>38</v>
@@ -809,10 +772,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>41</v>
@@ -823,13 +786,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
         <v>111</v>
@@ -841,269 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8566F91F-E685-4CDB-8080-37E1251EFE19}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>58</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>59</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>61</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>62</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>63</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>64</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>65</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>70</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3">
-        <v>111</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="3">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE29C6D-54E9-484D-934A-AEB2E95CB8C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F25AB2-A520-47FC-874B-B6FBA5E76EB3}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
